--- a/Part_2_tables/match_on_type_df_grouped.xlsx
+++ b/Part_2_tables/match_on_type_df_grouped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,10 +447,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>20</v>
+      <c r="B3" t="n">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/match_on_type_df_grouped.xlsx
+++ b/Part_2_tables/match_on_type_df_grouped.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>98</v>
+        <v>9987</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/match_on_type_df_grouped.xlsx
+++ b/Part_2_tables/match_on_type_df_grouped.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">

--- a/Part_2_tables/match_on_type_df_grouped.xlsx
+++ b/Part_2_tables/match_on_type_df_grouped.xlsx
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9987</v>
+        <v>9981</v>
       </c>
     </row>
   </sheetData>
